--- a/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
+++ b/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="182">
   <si>
     <t>土地坐落</t>
   </si>
@@ -239,6 +239,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -266,7 +269,7 @@
     <t>華隆</t>
   </si>
   <si>
-    <t>冠軍 .</t>
+    <t>冠軍.</t>
   </si>
   <si>
     <t>榮成</t>
@@ -401,25 +404,28 @@
     <t>2’209</t>
   </si>
   <si>
-    <t>80，000</t>
-  </si>
-  <si>
-    <t>41，840</t>
-  </si>
-  <si>
-    <t>5，760</t>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>41840</t>
+  </si>
+  <si>
+    <t>5760</t>
   </si>
   <si>
     <t>120；580</t>
   </si>
   <si>
-    <t>1,000，000</t>
-  </si>
-  <si>
-    <t>4，920</t>
-  </si>
-  <si>
-    <t>8，520</t>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>4920</t>
+  </si>
+  <si>
+    <t>8520</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-02-01</t>
@@ -1543,13 +1549,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1577,13 +1583,16 @@
       <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1601,21 +1610,24 @@
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1633,21 +1645,24 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -1665,21 +1680,24 @@
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
@@ -1697,21 +1715,24 @@
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -1729,21 +1750,24 @@
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -1761,21 +1785,24 @@
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
@@ -1793,27 +1820,30 @@
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -1825,21 +1855,24 @@
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
@@ -1857,21 +1890,24 @@
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
@@ -1889,21 +1925,24 @@
         <v>30000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
@@ -1918,24 +1957,27 @@
         <v>64</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
@@ -1953,21 +1995,24 @@
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
@@ -1985,21 +2030,24 @@
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -2017,21 +2065,24 @@
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -2049,21 +2100,24 @@
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>31</v>
@@ -2081,21 +2135,24 @@
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
@@ -2113,21 +2170,24 @@
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
@@ -2145,21 +2205,24 @@
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
@@ -2177,21 +2240,24 @@
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>31</v>
@@ -2209,21 +2275,24 @@
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
@@ -2238,24 +2307,27 @@
         <v>64</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>31</v>
@@ -2273,21 +2345,24 @@
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>31</v>
@@ -2305,21 +2380,24 @@
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
@@ -2334,24 +2412,27 @@
         <v>64</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>31</v>
@@ -2369,21 +2450,24 @@
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>31</v>
@@ -2401,21 +2485,24 @@
         <v>33320</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -2433,21 +2520,24 @@
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>31</v>
@@ -2465,21 +2555,24 @@
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>31</v>
@@ -2497,21 +2590,24 @@
         <v>7740</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>31</v>
@@ -2526,24 +2622,27 @@
         <v>64</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -2561,21 +2660,24 @@
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>31</v>
@@ -2593,21 +2695,24 @@
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -2625,21 +2730,24 @@
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>31</v>
@@ -2657,21 +2765,24 @@
         <v>104980</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>31</v>
@@ -2689,21 +2800,24 @@
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>31</v>
@@ -2721,21 +2835,24 @@
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>103</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>32</v>
@@ -2753,21 +2870,24 @@
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>104</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>32</v>
@@ -2785,21 +2905,24 @@
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>32</v>
@@ -2817,21 +2940,24 @@
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>106</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>32</v>
@@ -2849,21 +2975,24 @@
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>32</v>
@@ -2878,24 +3007,27 @@
         <v>64</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>32</v>
@@ -2913,21 +3045,24 @@
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>32</v>
@@ -2945,21 +3080,24 @@
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>32</v>
@@ -2977,21 +3115,24 @@
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>32</v>
@@ -3009,21 +3150,24 @@
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>32</v>
@@ -3038,24 +3182,27 @@
         <v>64</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>113</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>32</v>
@@ -3073,21 +3220,24 @@
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>32</v>
@@ -3105,21 +3255,24 @@
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>32</v>
@@ -3137,21 +3290,24 @@
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>32</v>
@@ -3169,21 +3325,24 @@
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>32</v>
@@ -3198,24 +3357,27 @@
         <v>64</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>32</v>
@@ -3233,21 +3395,24 @@
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>32</v>
@@ -3265,21 +3430,24 @@
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>32</v>
@@ -3297,21 +3465,24 @@
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>32</v>
@@ -3329,12 +3500,15 @@
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="2">
+        <v>135</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="2">
         <v>1724</v>
       </c>
     </row>
@@ -3353,22 +3527,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>58</v>
@@ -3379,25 +3553,25 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3415,16 +3589,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3432,16 +3606,16 @@
         <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3449,16 +3623,16 @@
         <v>144</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3466,16 +3640,16 @@
         <v>145</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3483,16 +3657,16 @@
         <v>146</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3500,16 +3674,16 @@
         <v>147</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3530,16 +3704,16 @@
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3547,19 +3721,19 @@
         <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3567,19 +3741,19 @@
         <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3587,7 +3761,7 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -3599,7 +3773,7 @@
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3617,19 +3791,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3640,10 +3814,10 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -3660,10 +3834,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
@@ -3680,10 +3854,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
+++ b/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="187">
   <si>
     <t>土地坐落</t>
   </si>
@@ -242,6 +242,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -251,6 +254,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>高企</t>
   </si>
   <si>
@@ -401,7 +410,7 @@
     <t>龍邦國際</t>
   </si>
   <si>
-    <t>2’209</t>
+    <t>2209</t>
   </si>
   <si>
     <t>80000</t>
@@ -413,7 +422,7 @@
     <t>5760</t>
   </si>
   <si>
-    <t>120；580</t>
+    <t>120580</t>
   </si>
   <si>
     <t>1000000</t>
@@ -428,7 +437,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-02-01</t>
+  </si>
+  <si>
+    <t>tmpb9501</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1549,13 +1564,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1586,13 +1601,22 @@
       <c r="K1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1610,24 +1634,33 @@
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1645,24 +1678,33 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -1680,24 +1722,33 @@
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
@@ -1715,24 +1766,33 @@
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -1750,24 +1810,33 @@
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -1785,24 +1854,33 @@
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
@@ -1820,30 +1898,39 @@
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -1855,24 +1942,33 @@
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
@@ -1890,24 +1986,33 @@
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
@@ -1925,24 +2030,33 @@
         <v>30000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
@@ -1957,27 +2071,36 @@
         <v>64</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
@@ -1995,24 +2118,33 @@
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N13" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
@@ -2030,24 +2162,33 @@
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -2065,24 +2206,33 @@
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N15" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -2100,24 +2250,33 @@
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N16" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>31</v>
@@ -2135,24 +2294,33 @@
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N17" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
@@ -2170,24 +2338,33 @@
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
@@ -2205,24 +2382,33 @@
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N19" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
@@ -2240,24 +2426,33 @@
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N20" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>31</v>
@@ -2275,24 +2470,33 @@
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N21" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
@@ -2307,27 +2511,36 @@
         <v>64</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N22" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>31</v>
@@ -2345,24 +2558,33 @@
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N23" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>31</v>
@@ -2380,24 +2602,33 @@
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
@@ -2412,27 +2643,36 @@
         <v>64</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N25" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>31</v>
@@ -2450,24 +2690,33 @@
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N26" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>31</v>
@@ -2485,24 +2734,33 @@
         <v>33320</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N27" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -2520,24 +2778,33 @@
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N28" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>31</v>
@@ -2555,24 +2822,33 @@
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>31</v>
@@ -2590,24 +2866,33 @@
         <v>7740</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N30" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>31</v>
@@ -2622,27 +2907,36 @@
         <v>64</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N31" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -2660,24 +2954,33 @@
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N32" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>31</v>
@@ -2695,24 +2998,33 @@
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N33" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -2730,24 +3042,33 @@
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N34" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>31</v>
@@ -2765,24 +3086,33 @@
         <v>104980</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N35" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>31</v>
@@ -2800,24 +3130,33 @@
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N36" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>31</v>
@@ -2835,24 +3174,33 @@
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N37" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>103</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>32</v>
@@ -2870,24 +3218,33 @@
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N38" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>104</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>32</v>
@@ -2905,24 +3262,33 @@
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N39" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>32</v>
@@ -2940,24 +3306,33 @@
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N40" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>106</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>32</v>
@@ -2975,24 +3350,33 @@
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N41" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>32</v>
@@ -3007,27 +3391,36 @@
         <v>64</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N42" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>32</v>
@@ -3045,24 +3438,33 @@
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N43" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>32</v>
@@ -3080,24 +3482,33 @@
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N44" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>32</v>
@@ -3115,24 +3526,33 @@
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N45" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>32</v>
@@ -3150,24 +3570,33 @@
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N46" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>32</v>
@@ -3182,27 +3611,36 @@
         <v>64</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N47" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>113</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>32</v>
@@ -3220,24 +3658,33 @@
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N48" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>32</v>
@@ -3255,24 +3702,33 @@
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N49" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>32</v>
@@ -3290,24 +3746,33 @@
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N50" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>32</v>
@@ -3325,24 +3790,33 @@
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N51" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>32</v>
@@ -3357,27 +3831,36 @@
         <v>64</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N52" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>32</v>
@@ -3395,24 +3878,33 @@
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N53" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>32</v>
@@ -3430,24 +3922,33 @@
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K54" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N54" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>32</v>
@@ -3465,24 +3966,33 @@
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N55" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>32</v>
@@ -3500,16 +4010,25 @@
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1724</v>
+        <v>139</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N56" s="2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3527,22 +4046,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>58</v>
@@ -3553,25 +4072,25 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3589,16 +4108,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3606,16 +4125,16 @@
         <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3623,16 +4142,16 @@
         <v>144</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3640,16 +4159,16 @@
         <v>145</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3657,16 +4176,16 @@
         <v>146</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3674,16 +4193,16 @@
         <v>147</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3704,16 +4223,16 @@
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3721,19 +4240,19 @@
         <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3741,19 +4260,19 @@
         <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3761,7 +4280,7 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -3773,7 +4292,7 @@
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3791,19 +4310,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3814,10 +4333,10 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -3834,10 +4353,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
@@ -3854,10 +4373,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
+++ b/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
@@ -8,22 +8,173 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="汽車" sheetId="2" r:id="rId2"/>
-    <sheet name="存款" sheetId="3" r:id="rId3"/>
-    <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="債務" sheetId="7" r:id="rId7"/>
-    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
+    <sheet name="建物" sheetId="2" r:id="rId2"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="8" r:id="rId8"/>
+    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="187">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="187">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市國風段15270000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮埔里段五十甲小段00510000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮埔里段五十甲小段00510001地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮埔里段五十甲小段01040000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮文頭段04610000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮北環段09690000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮忠孝段05050000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮忠孝段05060000地號</t>
+  </si>
+  <si>
+    <t>南投縣墦里鎮大瑪璘段03260001地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮大瑪璘段03260003地號</t>
+  </si>
+  <si>
+    <t>花蓮縣光復鄉阿托莫段13920000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣光復鄉阿托莫段17080000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣光復鄉阿托莫段17090000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮忠信段07200000地號</t>
+  </si>
+  <si>
+    <t>10000分之532</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>20分之1</t>
+  </si>
+  <si>
+    <t>100分之43</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>王俊國</t>
+  </si>
+  <si>
+    <t>馬文君</t>
+  </si>
+  <si>
+    <t>81年3月</t>
+  </si>
+  <si>
+    <t>85年12月</t>
+  </si>
+  <si>
+    <t>79年6月</t>
+  </si>
+  <si>
+    <t>93年4月</t>
+  </si>
+  <si>
+    <t>94年5月</t>
+  </si>
+  <si>
+    <t>100年1月</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五年公同共有）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-02-01</t>
+  </si>
+  <si>
+    <t>tmpb9501</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,136 +195,22 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>花蓮縣花蓮市國風段1527-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮埔里段五十甲小 段0051-0000地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮埔里段五十甲小 段0051-0001地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮埔里段五十甲小 段0104-0000地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮文頭段0461 -0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮北環段0969-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮忠孝段0505-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮忠孝段0506-0'000 地號</t>
-  </si>
-  <si>
-    <t>南投縣墦里鎮大瑪璘段 0326-0001 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮大瑪璘段 0326-0003 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉阿托莫段 1392-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉阿托莫段 1708-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉阿托莫段 1709-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮忠信段0720-0000 地號</t>
-  </si>
-  <si>
-    <t>建 物標示</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市國風段01719-000 建號</t>
+    <t>花蓮縣花蓮市國風段01719000建號</t>
   </si>
   <si>
     <t>南投縣埔里鎮大城里大城路</t>
   </si>
   <si>
-    <t>面積（平方 公尺 ）</t>
-  </si>
-  <si>
-    <t>10000分之 532</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>20分之1</t>
-  </si>
-  <si>
-    <t>100分之43</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>王俊國</t>
-  </si>
-  <si>
-    <t>馬文君</t>
-  </si>
-  <si>
-    <t>81年3月</t>
-  </si>
-  <si>
-    <t>85年12月</t>
-  </si>
-  <si>
-    <t>79年6月</t>
-  </si>
-  <si>
-    <t>93年4月</t>
-  </si>
-  <si>
-    <t>94年5月</t>
-  </si>
-  <si>
-    <t>100年1月</t>
-  </si>
-  <si>
-    <t>登記（取 得）時間</t>
-  </si>
-  <si>
     <t>95年6月</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>登記（取 得）原因</t>
-  </si>
-  <si>
     <t>貝賈</t>
   </si>
   <si>
     <t>(贈與)</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年,公 同共有）</t>
-  </si>
-  <si>
-    <t>(超過五年，公 同共有）</t>
-  </si>
-  <si>
-    <t>(超過五年，附 屬建物 109.11,陽台 14.38，共同建 物 364.84(1700 建號）,權利範 圍10000分之 532)</t>
+    <t>(超過五年附屬建物109.11陽台14.38共同建物364.84(1700建號）權利範圍10000分之532)</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -185,7 +222,7 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>TOYOTA (自用小客車）</t>
+    <t>TOYOTA(自用小客車）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -200,13 +237,13 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司埔 里郵局</t>
+    <t>中華郵政股份有限公司埔里郵局</t>
   </si>
   <si>
     <t>第一商業銀行埔里分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行東花蓮 分行</t>
+    <t>中國信託商業銀行東花蓮分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -221,12 +258,6 @@
     <t>王〇惠</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -239,27 +270,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>高企</t>
   </si>
   <si>
@@ -437,15 +447,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-02-01</t>
-  </si>
-  <si>
-    <t>tmpb9501</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -503,22 +504,22 @@
     <t>富貴年年終身壽險</t>
   </si>
   <si>
-    <t>10年繳費新金豐采利率變動 型終身壽險</t>
-  </si>
-  <si>
-    <t>20年缴費新金豐富利率變動 型年金保險</t>
+    <t>10年繳費新金豐采利率變動型終身壽險</t>
+  </si>
+  <si>
+    <t>20年缴費新金豐富利率變動型年金保險</t>
   </si>
   <si>
     <t>滿福變額年金保險</t>
   </si>
   <si>
-    <t>809,600元</t>
-  </si>
-  <si>
-    <t>548,800 元</t>
-  </si>
-  <si>
-    <t>223，800元</t>
+    <t>809600元</t>
+  </si>
+  <si>
+    <t>548800元</t>
+  </si>
+  <si>
+    <t>223800元</t>
   </si>
   <si>
     <t>9萬</t>
@@ -548,7 +549,7 @@
     <t>合作金庫商業銀行花蓮分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行東埔里分 行</t>
+    <t>合作金庫商業銀行東埔里分行</t>
   </si>
   <si>
     <t>94年</t>
@@ -940,13 +941,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,363 +969,657 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>730</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>742.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>29.72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>140.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>3.02</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>27.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>242.52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>941.24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1244.55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>71.05</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>983.43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>41</v>
@@ -1332,83 +1627,26 @@
       <c r="H15" s="2">
         <v>1600000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2">
-        <v>123.49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2">
-        <v>263.6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>47</v>
+      <c r="J15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1417,6 +1655,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2">
+        <v>123.49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2">
+        <v>263.6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1426,45 +1752,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1482,36 +1808,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2">
         <v>8010</v>
@@ -1519,19 +1845,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2">
         <v>1190328</v>
@@ -1539,19 +1865,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2">
         <v>653</v>
@@ -1562,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N56"/>
   <sheetViews>
@@ -1572,54 +1898,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>71</v>
@@ -1628,42 +1954,42 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2">
         <v>1724</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>15000</v>
@@ -1672,42 +1998,42 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2">
         <v>1724</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N3" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>361</v>
@@ -1716,42 +2042,42 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2">
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2">
         <v>1724</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>187</v>
@@ -1760,42 +2086,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2">
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2">
         <v>1724</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N5" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>80</v>
@@ -1804,42 +2130,42 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2">
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2">
         <v>1724</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N6" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>88</v>
@@ -1848,42 +2174,42 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2">
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" s="2">
         <v>1724</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N7" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>249</v>
@@ -1892,86 +2218,86 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2">
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" s="2">
         <v>1724</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N8" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2">
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L9" s="2">
         <v>1724</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N9" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>335</v>
@@ -1980,42 +2306,42 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2">
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" s="2">
         <v>1724</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N10" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>3000</v>
@@ -2024,42 +2350,42 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2">
         <v>30000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L11" s="2">
         <v>1724</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N11" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>8000</v>
@@ -2068,42 +2394,42 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L12" s="2">
         <v>1724</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N12" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>1080</v>
@@ -2112,42 +2438,42 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2">
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L13" s="2">
         <v>1724</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N13" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>1223</v>
@@ -2156,42 +2482,42 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2">
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14" s="2">
         <v>1724</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N14" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>150</v>
@@ -2200,42 +2526,42 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2">
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L15" s="2">
         <v>1724</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N15" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>5000</v>
@@ -2244,42 +2570,42 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2">
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L16" s="2">
         <v>1724</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N16" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>1541</v>
@@ -2288,42 +2614,42 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G17" s="2">
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L17" s="2">
         <v>1724</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N17" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>125</v>
@@ -2332,42 +2658,42 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2">
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L18" s="2">
         <v>1724</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N18" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>3594</v>
@@ -2376,42 +2702,42 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2">
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L19" s="2">
         <v>1724</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N19" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>3320</v>
@@ -2420,42 +2746,42 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G20" s="2">
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L20" s="2">
         <v>1724</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N20" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>223621</v>
@@ -2464,42 +2790,42 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2">
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L21" s="2">
         <v>1724</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N21" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>4184</v>
@@ -2508,42 +2834,42 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L22" s="2">
         <v>1724</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N22" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>31</v>
@@ -2552,42 +2878,42 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2">
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L23" s="2">
         <v>1724</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N23" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>1753</v>
@@ -2596,42 +2922,42 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2">
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L24" s="2">
         <v>1724</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N24" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>576</v>
@@ -2640,42 +2966,42 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L25" s="2">
         <v>1724</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N25" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>73</v>
@@ -2684,42 +3010,42 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G26" s="2">
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L26" s="2">
         <v>1724</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N26" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>3332</v>
@@ -2728,42 +3054,42 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2">
         <v>33320</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L27" s="2">
         <v>1724</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N27" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>5671</v>
@@ -2772,42 +3098,42 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2">
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L28" s="2">
         <v>1724</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N28" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>181</v>
@@ -2816,42 +3142,42 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2">
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L29" s="2">
         <v>1724</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N29" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>774</v>
@@ -2860,42 +3186,42 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G30" s="2">
         <v>7740</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L30" s="2">
         <v>1724</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N30" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>12058</v>
@@ -2904,42 +3230,42 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L31" s="2">
         <v>1724</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N31" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>10000</v>
@@ -2948,42 +3274,42 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G32" s="2">
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L32" s="2">
         <v>1724</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N32" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>20400</v>
@@ -2992,42 +3318,42 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G33" s="2">
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L33" s="2">
         <v>1724</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N33" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>113</v>
@@ -3036,42 +3362,42 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G34" s="2">
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L34" s="2">
         <v>1724</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N34" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>10498</v>
@@ -3080,42 +3406,42 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G35" s="2">
         <v>104980</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L35" s="2">
         <v>1724</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N35" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>3302</v>
@@ -3124,42 +3450,42 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G36" s="2">
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L36" s="2">
         <v>1724</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N36" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>39419</v>
@@ -3168,42 +3494,42 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G37" s="2">
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L37" s="2">
         <v>1724</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N37" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>961</v>
@@ -3212,42 +3538,42 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G38" s="2">
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L38" s="2">
         <v>1724</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N38" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>80</v>
@@ -3256,42 +3582,42 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G39" s="2">
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L39" s="2">
         <v>1724</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N39" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>257</v>
@@ -3300,42 +3626,42 @@
         <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G40" s="2">
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L40" s="2">
         <v>1724</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N40" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>1354</v>
@@ -3344,42 +3670,42 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G41" s="2">
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L41" s="2">
         <v>1724</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N41" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>100000</v>
@@ -3388,42 +3714,42 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L42" s="2">
         <v>1724</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N42" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
+        <v>109</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>19380</v>
@@ -3432,42 +3758,42 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G43" s="2">
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L43" s="2">
         <v>1724</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N43" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>11947</v>
@@ -3476,42 +3802,42 @@
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G44" s="2">
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L44" s="2">
         <v>1724</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N44" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>987</v>
@@ -3520,42 +3846,42 @@
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G45" s="2">
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L45" s="2">
         <v>1724</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N45" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>125</v>
@@ -3564,42 +3890,42 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G46" s="2">
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L46" s="2">
         <v>1724</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N46" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>492</v>
@@ -3608,42 +3934,42 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L47" s="2">
         <v>1724</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N47" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>100</v>
@@ -3652,42 +3978,42 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G48" s="2">
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L48" s="2">
         <v>1724</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N48" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>978</v>
@@ -3696,42 +4022,42 @@
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G49" s="2">
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L49" s="2">
         <v>1724</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N49" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>2639</v>
@@ -3740,42 +4066,42 @@
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G50" s="2">
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L50" s="2">
         <v>1724</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N50" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>305</v>
@@ -3784,42 +4110,42 @@
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G51" s="2">
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L51" s="2">
         <v>1724</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N51" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>852</v>
@@ -3828,42 +4154,42 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L52" s="2">
         <v>1724</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N52" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>557</v>
@@ -3872,42 +4198,42 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G53" s="2">
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L53" s="2">
         <v>1724</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N53" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>445</v>
@@ -3916,42 +4242,42 @@
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G54" s="2">
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L54" s="2">
         <v>1724</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N54" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>491</v>
@@ -3960,42 +4286,42 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G55" s="2">
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L55" s="2">
         <v>1724</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N55" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>1833</v>
@@ -4004,31 +4330,31 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G56" s="2">
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L56" s="2">
         <v>1724</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="N56" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4036,7 +4362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -4049,7 +4375,7 @@
         <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>142</v>
@@ -4064,12 +4390,12 @@
         <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>146</v>
@@ -4098,7 +4424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4122,7 +4448,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>156</v>
@@ -4131,7 +4457,7 @@
         <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>163</v>
@@ -4139,7 +4465,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>156</v>
@@ -4148,7 +4474,7 @@
         <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>164</v>
@@ -4156,7 +4482,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>157</v>
@@ -4165,7 +4491,7 @@
         <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>165</v>
@@ -4173,7 +4499,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>157</v>
@@ -4182,7 +4508,7 @@
         <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>166</v>
@@ -4190,7 +4516,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>157</v>
@@ -4199,100 +4525,10 @@
         <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>157</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1425132</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>158</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1261393</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>159</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2560000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4310,6 +4546,96 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>158</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1425132</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1261393</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>160</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2560000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4327,10 +4653,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>183</v>
@@ -4342,15 +4668,15 @@
         <v>114378</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>184</v>
@@ -4362,15 +4688,15 @@
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>184</v>
@@ -4382,7 +4708,7 @@
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
+++ b/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="159">
   <si>
     <t>name</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>(超過五年附屬建物109.11陽台14.38共同建物364.84(1700建號）權利範圍10000分之532)</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>TOYOTA(自用小客車）</t>
@@ -1828,38 +1831,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1875,6 +1899,27 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1892,16 +1937,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1">
         <v>8010</v>
@@ -1912,16 +1957,16 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2">
         <v>8010</v>
@@ -1932,16 +1977,16 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F3" s="2">
         <v>1190328</v>
@@ -1952,16 +1997,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2">
         <v>653</v>
@@ -1988,13 +2033,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2026,7 +2071,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -2038,13 +2083,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>49</v>
@@ -2070,7 +2115,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
@@ -2082,13 +2127,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>49</v>
@@ -2114,7 +2159,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
@@ -2126,13 +2171,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2">
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>49</v>
@@ -2158,7 +2203,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
@@ -2170,13 +2215,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>49</v>
@@ -2202,7 +2247,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -2214,13 +2259,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2">
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>49</v>
@@ -2246,7 +2291,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -2258,13 +2303,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2">
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>49</v>
@@ -2290,7 +2335,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
@@ -2302,13 +2347,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2">
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>49</v>
@@ -2334,25 +2379,25 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2">
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>49</v>
@@ -2378,7 +2423,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
@@ -2390,13 +2435,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2">
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>49</v>
@@ -2422,7 +2467,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -2434,13 +2479,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2">
         <v>30000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>49</v>
@@ -2466,7 +2511,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
@@ -2478,13 +2523,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>49</v>
@@ -2510,7 +2555,7 @@
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
@@ -2522,13 +2567,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2">
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>49</v>
@@ -2554,7 +2599,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -2566,13 +2611,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2">
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>49</v>
@@ -2598,7 +2643,7 @@
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
@@ -2610,13 +2655,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2">
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>49</v>
@@ -2642,7 +2687,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>35</v>
@@ -2654,13 +2699,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2">
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>49</v>
@@ -2686,7 +2731,7 @@
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>35</v>
@@ -2698,13 +2743,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2">
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>49</v>
@@ -2730,7 +2775,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>35</v>
@@ -2742,13 +2787,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2">
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>49</v>
@@ -2774,7 +2819,7 @@
         <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -2786,13 +2831,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2">
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>49</v>
@@ -2818,7 +2863,7 @@
         <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -2830,13 +2875,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2">
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>49</v>
@@ -2862,7 +2907,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>35</v>
@@ -2874,13 +2919,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="2">
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>49</v>
@@ -2906,7 +2951,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
@@ -2918,13 +2963,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>49</v>
@@ -2950,7 +2995,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -2962,13 +3007,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G23" s="2">
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>49</v>
@@ -2994,7 +3039,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
@@ -3006,13 +3051,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="2">
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>49</v>
@@ -3038,7 +3083,7 @@
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
@@ -3050,13 +3095,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>49</v>
@@ -3082,7 +3127,7 @@
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
@@ -3094,13 +3139,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26" s="2">
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>49</v>
@@ -3126,7 +3171,7 @@
         <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>35</v>
@@ -3138,13 +3183,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="2">
         <v>33320</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>49</v>
@@ -3170,7 +3215,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>35</v>
@@ -3182,13 +3227,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G28" s="2">
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>49</v>
@@ -3214,7 +3259,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>35</v>
@@ -3226,13 +3271,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29" s="2">
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>49</v>
@@ -3258,7 +3303,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>35</v>
@@ -3270,13 +3315,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G30" s="2">
         <v>7740</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>49</v>
@@ -3302,7 +3347,7 @@
         <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>35</v>
@@ -3314,13 +3359,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>49</v>
@@ -3346,7 +3391,7 @@
         <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>35</v>
@@ -3358,13 +3403,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G32" s="2">
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>49</v>
@@ -3390,7 +3435,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>35</v>
@@ -3402,13 +3447,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G33" s="2">
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>49</v>
@@ -3434,7 +3479,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>35</v>
@@ -3446,13 +3491,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G34" s="2">
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>49</v>
@@ -3478,7 +3523,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
@@ -3490,13 +3535,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G35" s="2">
         <v>104980</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>49</v>
@@ -3522,7 +3567,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -3534,13 +3579,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G36" s="2">
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>49</v>
@@ -3566,7 +3611,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -3578,13 +3623,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G37" s="2">
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>49</v>
@@ -3610,7 +3655,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>36</v>
@@ -3622,13 +3667,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G38" s="2">
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>49</v>
@@ -3654,7 +3699,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -3666,13 +3711,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G39" s="2">
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>49</v>
@@ -3698,7 +3743,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>36</v>
@@ -3710,13 +3755,13 @@
         <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G40" s="2">
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>49</v>
@@ -3742,7 +3787,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>36</v>
@@ -3754,13 +3799,13 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G41" s="2">
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>49</v>
@@ -3786,7 +3831,7 @@
         <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>36</v>
@@ -3798,13 +3843,13 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>49</v>
@@ -3830,7 +3875,7 @@
         <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>36</v>
@@ -3842,13 +3887,13 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G43" s="2">
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>49</v>
@@ -3874,7 +3919,7 @@
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>36</v>
@@ -3886,13 +3931,13 @@
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G44" s="2">
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>49</v>
@@ -3918,7 +3963,7 @@
         <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>36</v>
@@ -3930,13 +3975,13 @@
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G45" s="2">
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>49</v>
@@ -3962,7 +4007,7 @@
         <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>36</v>
@@ -3974,13 +4019,13 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G46" s="2">
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
@@ -4006,7 +4051,7 @@
         <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>36</v>
@@ -4018,13 +4063,13 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
@@ -4050,7 +4095,7 @@
         <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>36</v>
@@ -4062,13 +4107,13 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G48" s="2">
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>49</v>
@@ -4094,7 +4139,7 @@
         <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>36</v>
@@ -4106,13 +4151,13 @@
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G49" s="2">
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>49</v>
@@ -4138,7 +4183,7 @@
         <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>36</v>
@@ -4150,13 +4195,13 @@
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G50" s="2">
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>49</v>
@@ -4182,7 +4227,7 @@
         <v>117</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>36</v>
@@ -4194,13 +4239,13 @@
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G51" s="2">
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>49</v>
@@ -4226,7 +4271,7 @@
         <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>36</v>
@@ -4238,13 +4283,13 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
@@ -4270,7 +4315,7 @@
         <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>36</v>
@@ -4282,13 +4327,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G53" s="2">
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
@@ -4314,7 +4359,7 @@
         <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>36</v>
@@ -4326,13 +4371,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G54" s="2">
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>49</v>
@@ -4358,7 +4403,7 @@
         <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>36</v>
@@ -4370,13 +4415,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G55" s="2">
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
@@ -4402,7 +4447,7 @@
         <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>36</v>
@@ -4414,13 +4459,13 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G56" s="2">
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
@@ -4456,25 +4501,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4482,25 +4527,25 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4518,16 +4563,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4535,16 +4580,16 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4552,16 +4597,16 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4569,16 +4614,16 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4586,16 +4631,16 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4603,16 +4648,16 @@
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4630,19 +4675,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1">
         <v>1425132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4650,19 +4695,19 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4670,19 +4715,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4690,19 +4735,19 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4723,10 +4768,10 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1">
         <v>114378</v>
@@ -4743,10 +4788,10 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -4763,10 +4808,10 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
@@ -4783,10 +4828,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
+++ b/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="161">
   <si>
     <t>name</t>
   </si>
@@ -198,10 +198,16 @@
     <t>(超過五年附屬建物109.11陽台14.38共同建物364.84(1700建號）權利範圍10000分之532)</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
     <t>TOYOTA(自用小客車）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>中華郵政股份有限公司埔里郵局</t>
@@ -1744,7 +1750,7 @@
         <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>49</v>
@@ -1797,7 +1803,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>49</v>
@@ -1842,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1883,7 +1889,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1901,7 +1907,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>49</v>
@@ -1937,16 +1943,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1">
         <v>8010</v>
@@ -1957,16 +1963,16 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2">
         <v>8010</v>
@@ -1977,16 +1983,16 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2">
         <v>1190328</v>
@@ -1997,16 +2003,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F4" s="2">
         <v>653</v>
@@ -2033,13 +2039,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2071,7 +2077,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -2083,13 +2089,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>49</v>
@@ -2115,7 +2121,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
@@ -2127,13 +2133,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>49</v>
@@ -2159,7 +2165,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
@@ -2171,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>49</v>
@@ -2203,7 +2209,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
@@ -2215,13 +2221,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2">
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>49</v>
@@ -2247,7 +2253,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -2259,13 +2265,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2">
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>49</v>
@@ -2291,7 +2297,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -2303,13 +2309,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2">
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>49</v>
@@ -2335,7 +2341,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
@@ -2347,13 +2353,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2">
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>49</v>
@@ -2379,25 +2385,25 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2">
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>49</v>
@@ -2423,7 +2429,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
@@ -2435,13 +2441,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2">
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>49</v>
@@ -2467,7 +2473,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -2479,13 +2485,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2">
         <v>30000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>49</v>
@@ -2511,7 +2517,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
@@ -2523,13 +2529,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>49</v>
@@ -2555,7 +2561,7 @@
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
@@ -2567,13 +2573,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2">
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>49</v>
@@ -2599,7 +2605,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -2611,13 +2617,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2">
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>49</v>
@@ -2643,7 +2649,7 @@
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
@@ -2655,13 +2661,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2">
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>49</v>
@@ -2687,7 +2693,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>35</v>
@@ -2699,13 +2705,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2">
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>49</v>
@@ -2731,7 +2737,7 @@
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>35</v>
@@ -2743,13 +2749,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2">
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>49</v>
@@ -2775,7 +2781,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>35</v>
@@ -2787,13 +2793,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G18" s="2">
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>49</v>
@@ -2819,7 +2825,7 @@
         <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -2831,13 +2837,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2">
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>49</v>
@@ -2863,7 +2869,7 @@
         <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -2875,13 +2881,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G20" s="2">
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>49</v>
@@ -2907,7 +2913,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>35</v>
@@ -2919,13 +2925,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G21" s="2">
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>49</v>
@@ -2951,7 +2957,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
@@ -2963,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>49</v>
@@ -2995,7 +3001,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -3007,13 +3013,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G23" s="2">
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>49</v>
@@ -3039,7 +3045,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
@@ -3051,13 +3057,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G24" s="2">
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>49</v>
@@ -3083,7 +3089,7 @@
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
@@ -3095,13 +3101,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>49</v>
@@ -3127,7 +3133,7 @@
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
@@ -3139,13 +3145,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G26" s="2">
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>49</v>
@@ -3171,7 +3177,7 @@
         <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>35</v>
@@ -3183,13 +3189,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G27" s="2">
         <v>33320</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>49</v>
@@ -3215,7 +3221,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>35</v>
@@ -3227,13 +3233,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G28" s="2">
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>49</v>
@@ -3259,7 +3265,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>35</v>
@@ -3271,13 +3277,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G29" s="2">
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>49</v>
@@ -3303,7 +3309,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>35</v>
@@ -3315,13 +3321,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G30" s="2">
         <v>7740</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>49</v>
@@ -3347,7 +3353,7 @@
         <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>35</v>
@@ -3359,13 +3365,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>49</v>
@@ -3391,7 +3397,7 @@
         <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>35</v>
@@ -3403,13 +3409,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G32" s="2">
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>49</v>
@@ -3435,7 +3441,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>35</v>
@@ -3447,13 +3453,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G33" s="2">
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>49</v>
@@ -3479,7 +3485,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>35</v>
@@ -3491,13 +3497,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G34" s="2">
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>49</v>
@@ -3523,7 +3529,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
@@ -3535,13 +3541,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G35" s="2">
         <v>104980</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>49</v>
@@ -3567,7 +3573,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -3579,13 +3585,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G36" s="2">
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>49</v>
@@ -3611,7 +3617,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -3623,13 +3629,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G37" s="2">
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>49</v>
@@ -3655,7 +3661,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>36</v>
@@ -3667,13 +3673,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G38" s="2">
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>49</v>
@@ -3699,7 +3705,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -3711,13 +3717,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G39" s="2">
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>49</v>
@@ -3743,7 +3749,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>36</v>
@@ -3755,13 +3761,13 @@
         <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G40" s="2">
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>49</v>
@@ -3787,7 +3793,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>36</v>
@@ -3799,13 +3805,13 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G41" s="2">
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>49</v>
@@ -3831,7 +3837,7 @@
         <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>36</v>
@@ -3843,13 +3849,13 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>49</v>
@@ -3875,7 +3881,7 @@
         <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>36</v>
@@ -3887,13 +3893,13 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G43" s="2">
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>49</v>
@@ -3919,7 +3925,7 @@
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>36</v>
@@ -3931,13 +3937,13 @@
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G44" s="2">
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>49</v>
@@ -3963,7 +3969,7 @@
         <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>36</v>
@@ -3975,13 +3981,13 @@
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G45" s="2">
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>49</v>
@@ -4007,7 +4013,7 @@
         <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>36</v>
@@ -4019,13 +4025,13 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G46" s="2">
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
@@ -4051,7 +4057,7 @@
         <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>36</v>
@@ -4063,13 +4069,13 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
@@ -4095,7 +4101,7 @@
         <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>36</v>
@@ -4107,13 +4113,13 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G48" s="2">
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>49</v>
@@ -4139,7 +4145,7 @@
         <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>36</v>
@@ -4151,13 +4157,13 @@
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G49" s="2">
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>49</v>
@@ -4183,7 +4189,7 @@
         <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>36</v>
@@ -4195,13 +4201,13 @@
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G50" s="2">
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>49</v>
@@ -4227,7 +4233,7 @@
         <v>117</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>36</v>
@@ -4239,13 +4245,13 @@
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G51" s="2">
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>49</v>
@@ -4271,7 +4277,7 @@
         <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>36</v>
@@ -4283,13 +4289,13 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
@@ -4315,7 +4321,7 @@
         <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>36</v>
@@ -4327,13 +4333,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G53" s="2">
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
@@ -4359,7 +4365,7 @@
         <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>36</v>
@@ -4371,13 +4377,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G54" s="2">
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>49</v>
@@ -4403,7 +4409,7 @@
         <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>36</v>
@@ -4415,13 +4421,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G55" s="2">
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
@@ -4447,7 +4453,7 @@
         <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>36</v>
@@ -4459,13 +4465,13 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G56" s="2">
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
@@ -4501,25 +4507,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4527,25 +4533,25 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4563,16 +4569,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4580,16 +4586,16 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4597,16 +4603,16 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4614,16 +4620,16 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4631,16 +4637,16 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4648,16 +4654,16 @@
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4675,19 +4681,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1">
         <v>1425132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4695,19 +4701,19 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4715,19 +4721,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4735,19 +4741,19 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2">
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4768,10 +4774,10 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1">
         <v>114378</v>
@@ -4788,10 +4794,10 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -4808,10 +4814,10 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
@@ -4828,10 +4834,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
+++ b/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -210,34 +210,43 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司埔里郵局</t>
   </si>
   <si>
+    <t>第一商業銀行埔里分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行東花蓮分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
     <t>王〇惠</t>
   </si>
   <si>
-    <t>第一商業銀行埔里分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行東花蓮分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>高企</t>
@@ -1935,13 +1944,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1952,33 +1961,75 @@
         <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1">
-        <v>8010</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2">
         <v>8010</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>57</v>
       </c>
@@ -1986,19 +2037,40 @@
         <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2">
         <v>1190328</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>58</v>
       </c>
@@ -2006,16 +2078,37 @@
         <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2">
         <v>653</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2039,13 +2132,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2077,7 +2170,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -2089,13 +2182,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>49</v>
@@ -2121,7 +2214,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
@@ -2133,13 +2226,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>49</v>
@@ -2165,7 +2258,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
@@ -2177,13 +2270,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>49</v>
@@ -2209,7 +2302,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
@@ -2221,13 +2314,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>49</v>
@@ -2253,7 +2346,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -2265,13 +2358,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>49</v>
@@ -2297,7 +2390,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -2309,13 +2402,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>49</v>
@@ -2341,7 +2434,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
@@ -2353,13 +2446,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2">
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>49</v>
@@ -2385,25 +2478,25 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2">
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>49</v>
@@ -2429,7 +2522,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
@@ -2441,13 +2534,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>49</v>
@@ -2473,7 +2566,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -2485,13 +2578,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2">
         <v>30000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>49</v>
@@ -2517,7 +2610,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
@@ -2529,13 +2622,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>49</v>
@@ -2561,7 +2654,7 @@
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
@@ -2573,13 +2666,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>49</v>
@@ -2605,7 +2698,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -2617,13 +2710,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2">
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>49</v>
@@ -2649,7 +2742,7 @@
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
@@ -2661,13 +2754,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2">
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>49</v>
@@ -2693,7 +2786,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>35</v>
@@ -2705,13 +2798,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2">
         <v>50000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>49</v>
@@ -2737,7 +2830,7 @@
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>35</v>
@@ -2749,13 +2842,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2">
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>49</v>
@@ -2781,7 +2874,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>35</v>
@@ -2793,13 +2886,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2">
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>49</v>
@@ -2825,7 +2918,7 @@
         <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -2837,13 +2930,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2">
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>49</v>
@@ -2869,7 +2962,7 @@
         <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -2881,13 +2974,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2">
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>49</v>
@@ -2913,7 +3006,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>35</v>
@@ -2925,13 +3018,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2">
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>49</v>
@@ -2957,7 +3050,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
@@ -2969,13 +3062,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>49</v>
@@ -3001,7 +3094,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -3013,13 +3106,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2">
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>49</v>
@@ -3045,7 +3138,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
@@ -3057,13 +3150,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2">
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>49</v>
@@ -3089,7 +3182,7 @@
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
@@ -3101,13 +3194,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>49</v>
@@ -3133,7 +3226,7 @@
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
@@ -3145,13 +3238,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2">
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>49</v>
@@ -3177,7 +3270,7 @@
         <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>35</v>
@@ -3189,13 +3282,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2">
         <v>33320</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>49</v>
@@ -3221,7 +3314,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>35</v>
@@ -3233,13 +3326,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2">
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>49</v>
@@ -3265,7 +3358,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>35</v>
@@ -3277,13 +3370,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G29" s="2">
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>49</v>
@@ -3309,7 +3402,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>35</v>
@@ -3321,13 +3414,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2">
         <v>7740</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>49</v>
@@ -3353,7 +3446,7 @@
         <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>35</v>
@@ -3365,13 +3458,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>49</v>
@@ -3397,7 +3490,7 @@
         <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>35</v>
@@ -3409,13 +3502,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2">
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>49</v>
@@ -3441,7 +3534,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>35</v>
@@ -3453,13 +3546,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G33" s="2">
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>49</v>
@@ -3485,7 +3578,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>35</v>
@@ -3497,13 +3590,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G34" s="2">
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>49</v>
@@ -3529,7 +3622,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
@@ -3541,13 +3634,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G35" s="2">
         <v>104980</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>49</v>
@@ -3573,7 +3666,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -3585,13 +3678,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G36" s="2">
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>49</v>
@@ -3617,7 +3710,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -3629,13 +3722,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G37" s="2">
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>49</v>
@@ -3661,7 +3754,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>36</v>
@@ -3673,13 +3766,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G38" s="2">
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>49</v>
@@ -3705,7 +3798,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -3717,13 +3810,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G39" s="2">
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>49</v>
@@ -3749,7 +3842,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>36</v>
@@ -3761,13 +3854,13 @@
         <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G40" s="2">
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>49</v>
@@ -3793,7 +3886,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>36</v>
@@ -3805,13 +3898,13 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G41" s="2">
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>49</v>
@@ -3837,7 +3930,7 @@
         <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>36</v>
@@ -3849,13 +3942,13 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>49</v>
@@ -3881,7 +3974,7 @@
         <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>36</v>
@@ -3893,13 +3986,13 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G43" s="2">
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>49</v>
@@ -3925,7 +4018,7 @@
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>36</v>
@@ -3937,13 +4030,13 @@
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G44" s="2">
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>49</v>
@@ -3969,7 +4062,7 @@
         <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>36</v>
@@ -3981,13 +4074,13 @@
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G45" s="2">
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>49</v>
@@ -4013,7 +4106,7 @@
         <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>36</v>
@@ -4025,13 +4118,13 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G46" s="2">
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
@@ -4057,7 +4150,7 @@
         <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>36</v>
@@ -4069,13 +4162,13 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
@@ -4101,7 +4194,7 @@
         <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>36</v>
@@ -4113,13 +4206,13 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G48" s="2">
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>49</v>
@@ -4145,7 +4238,7 @@
         <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>36</v>
@@ -4157,13 +4250,13 @@
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G49" s="2">
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>49</v>
@@ -4189,7 +4282,7 @@
         <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>36</v>
@@ -4201,13 +4294,13 @@
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G50" s="2">
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>49</v>
@@ -4233,7 +4326,7 @@
         <v>117</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>36</v>
@@ -4245,13 +4338,13 @@
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G51" s="2">
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>49</v>
@@ -4277,7 +4370,7 @@
         <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>36</v>
@@ -4289,13 +4382,13 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
@@ -4321,7 +4414,7 @@
         <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>36</v>
@@ -4333,13 +4426,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G53" s="2">
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
@@ -4365,7 +4458,7 @@
         <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>36</v>
@@ -4377,13 +4470,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G54" s="2">
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>49</v>
@@ -4409,7 +4502,7 @@
         <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>36</v>
@@ -4421,13 +4514,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G55" s="2">
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
@@ -4453,7 +4546,7 @@
         <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>36</v>
@@ -4465,13 +4558,13 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G56" s="2">
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
@@ -4507,25 +4600,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4533,25 +4626,25 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4569,16 +4662,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4586,16 +4679,16 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4603,16 +4696,16 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4620,16 +4713,16 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4637,16 +4730,16 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4654,16 +4747,16 @@
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4681,19 +4774,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1">
         <v>1425132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4701,19 +4794,19 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4721,19 +4814,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4741,7 +4834,7 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>36</v>
@@ -4753,7 +4846,7 @@
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4774,10 +4867,10 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1">
         <v>114378</v>
@@ -4794,10 +4887,10 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -4814,10 +4907,10 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
@@ -4834,10 +4927,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
+++ b/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
@@ -12,17 +12,16 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
-    <sheet name="債務" sheetId="8" r:id="rId8"/>
-    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="157">
   <si>
     <t>name</t>
   </si>
@@ -424,27 +423,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>價</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -4592,68 +4570,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>134</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4662,100 +4578,190 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
+        <v>145</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1425132</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>155</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1425132</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1261393</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>157</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2560000</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4774,163 +4780,73 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E1" s="1">
-        <v>1425132</v>
+        <v>114378</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E2" s="2">
-        <v>1425132</v>
+        <v>114378</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E3" s="2">
-        <v>1261393</v>
+        <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2560000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="1">
-        <v>114378</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>165</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="2">
-        <v>114378</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>166</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>167</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
+++ b/legislator/property/output/normal/馬文君_2012-02-01_財產申報表_tmpb9501.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="160">
   <si>
     <t>name</t>
   </si>
@@ -425,18 +425,18 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
     <t>開運年年終身壽險</t>
   </si>
   <si>
-    <t>809600元</t>
-  </si>
-  <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
     <t>富貴年年終身壽險</t>
   </si>
   <si>
@@ -449,49 +449,58 @@
     <t>滿福變額年金保險</t>
   </si>
   <si>
-    <t>548800元</t>
-  </si>
-  <si>
-    <t>223800元</t>
-  </si>
-  <si>
-    <t>9萬</t>
-  </si>
-  <si>
-    <t>100萬</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>抵押貸款</t>
   </si>
   <si>
+    <t>週轉金貸款(消費理財）</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行花蓮分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行東埔里分行</t>
+  </si>
+  <si>
     <t>94年</t>
   </si>
   <si>
-    <t>週轉金貸款(消費理財）</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行東埔里分行</t>
-  </si>
-  <si>
     <t>100年</t>
   </si>
   <si>
     <t>85年</t>
   </si>
   <si>
+    <t>無資料</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>南投縣十方儲蓄互助社</t>
   </si>
   <si>
+    <t>吉钰建設股份有限公司</t>
+  </si>
+  <si>
     <t>南投縣埔里鎮三民路15號</t>
   </si>
   <si>
-    <t>吉钰建設股份有限公司</t>
-  </si>
-  <si>
     <t>南投縣埔里鎮西寧路36號</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -4570,49 +4579,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>142</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>138</v>
@@ -4623,13 +4668,31 @@
       <c r="E3" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>139</v>
@@ -4638,15 +4701,33 @@
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>140</v>
@@ -4655,15 +4736,33 @@
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>141</v>
@@ -4672,6 +4771,24 @@
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2">
         <v>145</v>
       </c>
     </row>
@@ -4682,35 +4799,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1425132</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -4722,35 +4863,83 @@
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>149</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>150</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>36</v>
@@ -4762,7 +4951,31 @@
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>152</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="2">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4772,30 +4985,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="1">
-        <v>114378</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>162</v>
       </c>
@@ -4803,10 +5040,10 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -4814,8 +5051,32 @@
       <c r="F2" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>163</v>
       </c>
@@ -4823,10 +5084,10 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
@@ -4834,8 +5095,32 @@
       <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>164</v>
       </c>
@@ -4843,16 +5128,40 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="2">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
